--- a/dbs/基础数据导入模板20170505.xlsx
+++ b/dbs/基础数据导入模板20170505.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\蓝海联盟\成本核算\2.0版（曹松伟开发）\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="15455" windowHeight="6780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="科室基本情况和直接成本" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
   <si>
     <t>科室编码</t>
   </si>
@@ -222,14 +227,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +241,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -249,23 +249,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -273,12 +277,14 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -286,355 +292,26 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -683,253 +360,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -939,10 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -958,17 +389,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -978,9 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,59 +427,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1104,7 +491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1139,7 +526,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1347,1342 +734,1340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.62962962962963" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.6296296296296" style="17" customWidth="1"/>
-    <col min="3" max="7" width="8.62962962962963" style="17" customWidth="1"/>
-    <col min="8" max="14" width="7.62962962962963" style="17" customWidth="1"/>
-    <col min="15" max="20" width="3.62962962962963" style="17" customWidth="1"/>
-    <col min="21" max="26" width="4.62962962962963" style="17" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="4.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="13" customWidth="1"/>
+    <col min="3" max="7" width="8.625" style="13" customWidth="1"/>
+    <col min="8" max="14" width="7.625" style="13" customWidth="1"/>
+    <col min="15" max="20" width="3.625" style="13" customWidth="1"/>
+    <col min="21" max="26" width="4.625" style="13" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72" spans="1:26">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:26" ht="36" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="60" spans="1:26">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+    <row r="2" spans="1:26" ht="60" x14ac:dyDescent="0.15">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="23" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="17">
         <v>191101.12</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="17">
         <v>192101.23</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="17">
         <v>193101.34</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="17">
         <v>194101.45</v>
       </c>
-      <c r="G3" s="21">
-        <v>19982.33</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21">
+      <c r="G3" s="17">
+        <v>19982.330000000002</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17">
         <v>88934.56</v>
       </c>
-      <c r="J3" s="21">
-        <v>89968.32</v>
-      </c>
-      <c r="K3" s="21">
+      <c r="J3" s="17">
+        <v>89968.320000000007</v>
+      </c>
+      <c r="K3" s="17">
         <v>89936.75</v>
       </c>
-      <c r="L3" s="21">
-        <v>89968.32</v>
-      </c>
-      <c r="M3" s="21">
+      <c r="L3" s="17">
+        <v>89968.320000000007</v>
+      </c>
+      <c r="M3" s="17">
         <v>89950.11</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="17">
         <v>89961.89</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="17">
         <v>8</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="17">
         <v>6</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="17">
         <v>1</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="17">
         <v>6</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="17">
         <v>2</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21">
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17">
         <v>1834</v>
       </c>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21">
+      <c r="W3" s="17"/>
+      <c r="X3" s="17">
         <v>158</v>
       </c>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="24"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="23" t="s">
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="20"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>192601.56</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>193643.67</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="17">
         <v>193987.78</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="17">
         <v>194523.89</v>
       </c>
-      <c r="G4" s="21">
-        <v>19659.58</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21">
+      <c r="G4" s="17">
+        <v>19659.580000000002</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17">
         <v>88827.31</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="17">
         <v>89925.65</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="17">
         <v>89945.11</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="17">
         <v>89925.65</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="17">
         <v>89944.29</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="17">
         <v>89926.16</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="17">
         <v>7</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="17">
         <v>5</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="17">
         <v>2</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="17">
         <v>5</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="17">
         <v>3</v>
       </c>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21">
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17">
         <v>2186</v>
       </c>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21">
+      <c r="W4" s="17"/>
+      <c r="X4" s="17">
         <v>214</v>
       </c>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="24"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="23" t="s">
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="20"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="17">
         <v>191984.29</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="17">
         <v>192267.36</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="17">
         <v>193359.15</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="17">
         <v>194961.35</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="17">
         <v>19486.23</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21">
+      <c r="H5" s="17"/>
+      <c r="I5" s="17">
         <v>88729.61</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="17">
         <v>89936.75</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="17">
         <v>89967.34</v>
       </c>
-      <c r="L5" s="21">
-        <v>89963.84</v>
-      </c>
-      <c r="M5" s="21">
+      <c r="L5" s="17">
+        <v>89963.839999999997</v>
+      </c>
+      <c r="M5" s="17">
         <v>89973.57</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="17">
         <v>89950.11</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="17">
         <v>6</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="17">
         <v>4</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="17">
         <v>3</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="17">
         <v>7</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="17">
         <v>2</v>
       </c>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21">
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17">
         <v>3283</v>
       </c>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21">
+      <c r="W5" s="17"/>
+      <c r="X5" s="17">
         <v>194</v>
       </c>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="24"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="23" t="s">
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="20"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="17">
         <v>194561.65</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>191379.11</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="17">
         <v>193489.28</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="17">
         <v>192469.26</v>
       </c>
-      <c r="G6" s="21">
-        <v>19853.69</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21">
+      <c r="G6" s="17">
+        <v>19853.689999999999</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17">
         <v>88610.62</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="17">
         <v>89945.11</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="17">
         <v>89936.11</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="17">
         <v>89961.89</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="17">
         <v>89998.83</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="17">
         <v>89944.29</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="17">
         <v>7</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="17">
         <v>6</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="17">
         <v>5</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="17">
         <v>11</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="17">
         <v>2</v>
       </c>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21">
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17">
         <v>356</v>
       </c>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="24">
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="20">
         <v>2836</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="17">
         <v>191874.38</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>195782.98</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="17">
         <v>192846.91</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="17">
         <v>193782.94</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="17">
         <v>19524.78</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17">
         <v>88572.14</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="17">
         <v>89967.34</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="17">
         <v>89957.54</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="17">
         <v>89926.16</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="17">
         <v>89984.26</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="17">
         <v>89973.57</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="17">
         <v>8</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="17">
         <v>5</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="17">
         <v>3</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="17">
         <v>12</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="17">
         <v>2</v>
       </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21">
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17">
         <v>398</v>
       </c>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="24">
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="20">
         <v>3129</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="17">
         <v>191638.76</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>193375.62</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <v>192845.73</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="17">
         <v>193812.44</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="17">
         <v>19673.98</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17">
         <v>88491.25</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="17">
         <v>89936.11</v>
       </c>
-      <c r="K8" s="21">
-        <v>89968.32</v>
-      </c>
-      <c r="L8" s="21">
+      <c r="K8" s="17">
+        <v>89968.320000000007</v>
+      </c>
+      <c r="L8" s="17">
         <v>89950.11</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="17">
         <v>89936.75</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="17">
         <v>89998.83</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="17">
         <v>9</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="17">
         <v>7</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="17">
         <v>4</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="17">
         <v>13</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="17">
         <v>3</v>
       </c>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21">
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17">
         <v>416</v>
       </c>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="24">
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="20">
         <v>3695</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17">
         <v>35652.33</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="17">
         <v>63268.52</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="17">
         <v>56137.15</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="17">
         <v>193521.65</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17">
         <v>88371.81</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="17">
         <v>89957.54</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="17">
         <v>89925.65</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="17">
         <v>89944.29</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="17">
         <v>89945.11</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="17">
         <v>89984.26</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21">
+      <c r="O9" s="17"/>
+      <c r="P9" s="17">
         <v>1</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="17">
         <v>1</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="17">
         <v>2</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="17">
         <v>5</v>
       </c>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21">
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17">
         <v>3328</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21">
+      <c r="W9" s="17"/>
+      <c r="X9" s="17">
         <v>217</v>
       </c>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="24"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="23" t="s">
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="20"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17">
         <v>191936.84</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17">
         <v>88217.52</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="17">
         <v>89961.31</v>
       </c>
-      <c r="K10" s="21">
-        <v>89963.84</v>
-      </c>
-      <c r="L10" s="21">
+      <c r="K10" s="17">
+        <v>89963.839999999997</v>
+      </c>
+      <c r="L10" s="17">
         <v>89973.57</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="17">
         <v>89967.34</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="17">
         <v>89936.75</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21">
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17">
         <v>7</v>
       </c>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21">
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17">
         <v>2671</v>
       </c>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21">
+      <c r="W10" s="17"/>
+      <c r="X10" s="17">
         <v>261</v>
       </c>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="24"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="23" t="s">
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="20"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17">
         <v>192638.29</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17">
         <v>88116.25</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="17">
         <v>89926.16</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="17">
         <v>89950.11</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="17">
         <v>89998.83</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="17">
         <v>89936.11</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="17">
         <v>89945.11</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21">
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17">
         <v>6</v>
       </c>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21">
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17">
         <v>2956</v>
       </c>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21">
+      <c r="W11" s="17"/>
+      <c r="X11" s="17">
         <v>243</v>
       </c>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="24"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="23" t="s">
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="20"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21">
-        <v>19164.35</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17">
+        <v>19164.349999999999</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17">
         <v>89950.11</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21">
+      <c r="K12" s="17"/>
+      <c r="L12" s="17">
         <v>89984.21</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21">
+      <c r="M12" s="17"/>
+      <c r="N12" s="17">
         <v>89967.34</v>
       </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21">
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17">
         <v>8</v>
       </c>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="24"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="23" t="s">
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="20"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
         <v>19283.46</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="17">
         <v>88092.93</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="17">
         <v>89944.29</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21">
+      <c r="K13" s="17"/>
+      <c r="L13" s="17">
         <v>89936.75</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21">
+      <c r="M13" s="17"/>
+      <c r="N13" s="17">
         <v>89936.11</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21">
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17">
         <v>7</v>
       </c>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="24"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="23" t="s">
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="20"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17">
         <v>19372.12</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17">
         <v>89973.57</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21">
+      <c r="K14" s="17"/>
+      <c r="L14" s="17">
         <v>89945.11</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17">
         <v>89957.54</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21">
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17">
         <v>6</v>
       </c>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="24"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="23" t="s">
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="20"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17">
         <v>19185.98</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17">
         <v>89998.83</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21">
+      <c r="K15" s="17"/>
+      <c r="L15" s="17">
         <v>89967.34</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21">
-        <v>89968.32</v>
-      </c>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21">
+      <c r="M15" s="17"/>
+      <c r="N15" s="17">
+        <v>89968.320000000007</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17">
         <v>5</v>
       </c>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="24"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="23" t="s">
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="20"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17">
         <v>19451.86</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17">
         <v>89984.26</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21">
+      <c r="K16" s="17"/>
+      <c r="L16" s="17">
         <v>89936.11</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21">
+      <c r="M16" s="17"/>
+      <c r="N16" s="17">
         <v>89925.65</v>
       </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21">
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17">
         <v>8</v>
       </c>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="23" t="s">
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17">
         <v>19512.79</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21">
-        <v>89963.84</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17">
+        <v>89963.839999999997</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17">
         <v>89957.54</v>
       </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21">
-        <v>89963.84</v>
-      </c>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21">
+      <c r="M17" s="17"/>
+      <c r="N17" s="17">
+        <v>89963.839999999997</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17">
         <v>9</v>
       </c>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="24"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="O1:T1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.1296296296296" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="12.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <v>301</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="12">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>301</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>301</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>301</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>301</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>301</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>302</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>302</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>302</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>302</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>302</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>302</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>303</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>303</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <v>303</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="12">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>303</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <v>303</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>303</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="12.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2692,253 +2077,253 @@
       <c r="C1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>2700</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>